--- a/Data/Transitions/19011958Translation.xlsx
+++ b/Data/Transitions/19011958Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="914">
   <si>
     <t>id</t>
   </si>
@@ -28,19 +28,19 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
   </si>
   <si>
     <t>{4.0: 1.0, 496.0: 0.0086292731496847}</t>
   </si>
   <si>
-    <t>{5.0: 0.9694199207584238, 403.0: 0.005887612687734961}</t>
+    <t>{5.0: 0.9694640710996556, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
   </si>
   <si>
-    <t>{7.0: 0.8729846404621571}</t>
+    <t>{7.0: 0.8728545550605372}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9895951735594999}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,10 +79,10 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
-  </si>
-  <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{679.0: 0.4935636856368564}</t>
+  </si>
+  <si>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.020726036957175703, 246.0: 0.01620924641904141, 681.0: 0.009117688454576946, 741.0: 0.00817597294805933, 789.0: 0.003083001037889671}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.020748110743117883, 246.0: 0.01620029946546196, 681.0: 0.009122520122153777, 741.0: 0.008183965540227347, 789.0: 0.003089266097670683}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -124,7 +124,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -136,37 +136,37 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.00464423766502221}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.004644267467867127}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.11485198190981857}</t>
+    <t>{75.0: 1.0, 917.0: 0.11513761097960876}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
-  </si>
-  <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
+  </si>
+  <si>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 14.0: 0.0002688641098621682, 492.0: 0.0026003154391696127, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.35926979377591667, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 14.0: 0.00026984893800464113, 492.0: 0.0026000821520827133, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.3575941314214227, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9452080012612006, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06, 681.0: 9.006419171195067e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.10406272321566451}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8959371160388855, 91.0: 0.03813849167117715, 858.0: 0.11116858391946506, 543.0: 0.001294970761124982}</t>
+    <t>{90.0: 0.945186179595832, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06, 681.0: 8.982581474534481e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.1034156444923224}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8965842063144022, 91.0: 0.038138650843432466, 858.0: 0.10346854860717557, 543.0: 0.0012056216441459632}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.2553326544136883}</t>
+    <t>{97.0: 0.9723237186088487}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.2577610059258017}</t>
   </si>
   <si>
     <t>{99.0: 1.0, 230.0: 0.004871395167575994}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.0030689706570926445, 86.0: -0.0013551038561849204}</t>
-  </si>
-  <si>
-    <t>{543.0: -0.00205995733931015, 86.0: -0.000909574070910169, 505.0: 0.009305654974946313}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9907457807451502, 144.0: 0.00813773778970335}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{543.0: 0.15081441977339646, 86.0: 0.06662308454597138}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.23067153187143186, 86.0: 0.10190039515657803, 505.0: 0.009305654974946313}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9907507203229236, 144.0: 0.008137595844409649}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -253,19 +253,19 @@
     <t>{141.0: 0.6758285413496921, 762.0: 0.6758285413496921}</t>
   </si>
   <si>
-    <t>{142.0: 0.6799263461575976, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04625027587587877}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9097610131785987}</t>
+    <t>{142.0: 0.6798894445619768, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04275579021694319}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9132382007231626}</t>
   </si>
   <si>
     <t>{145.0: 0.9978696743529367}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
+    <t>{146.0: 0.7349950571953114}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014418315752371007}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014538334917061371}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,13 +292,13 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
-  </si>
-  <si>
-    <t>{167.0: 0.9994646680942184, 276.0: 0.33427367053250995}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
+  </si>
+  <si>
+    <t>{167.0: 0.9994646680942184, 276.0: 0.3347597983936734}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.639176144307317}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.7835236683980632, 404.0: 0.0017373964620257928, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 534.0: 0.04943118981305118}</t>
+    <t>{171.0: 0.6418669800018848}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.7835236683980632, 404.0: 0.0017518586832511837, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 534.0: 0.04700343385884175}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,64 +328,64 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.010227277857796856, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4140339596940813, 410.0: 0.010166137119917876, 277.0: 7.057845927259817e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5422188141189332, 410.0: 0.014395686970100978, 277.0: 9.99421308738507e-05}</t>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.010311688422776206, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.41499950355670423, 410.0: 0.01007542775090648, 277.0: 7.083620274894988e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5482699271655748, 410.0: 0.014277015024410008, 277.0: 0.00010037584070094911}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0016320956571106234, 180.0: 3.2668736665918865e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.05825997917972308, 593.0: 0.047752324941765505, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.005331194363014698}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.153839044522277, 917.0: 0.029035515377299318}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7106715641844588, 857.0: 0.004858248839482561}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.001633178723995504, 180.0: 5.360608468307691e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.058233101178436504, 593.0: 0.04763664141780031, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.003789048017917039}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7185751362926827, 917.0: 0.01808528564746644}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7106600987110239, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887, 578.0: 0.18204845814977974}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321, 578.0: 0.18204845814977974}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.008357040088911935}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.008365967005621318}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,31 +394,31 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,10 +427,10 @@
     <t>{226.0: 0.7384353461125667}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{102.0: 0.1815575728619207, 253.0: 0.002564069085859641}</t>
+    <t>{102.0: 0.1815575728619207, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.004275200369087309}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.6399709972447439, 46.0: 0.001474491300501327, 90.0: 3.0605488714081074e-05, 681.0: 1.3463804569664716e-05, 741.0: 1.2073202817571368e-05, 789.0: 4.552570936044996e-06}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.0030589631511635878}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.6402292990281426, 46.0: 0.001474491300501327, 90.0: 3.0638084381449914e-05, 681.0: 1.3470939341632867e-05, 741.0: 1.2085005227742688e-05, 789.0: 4.561822353323513e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,19 +490,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7306727153256398}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 144.0: 0.010139449231353, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.72999062888997}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 144.0: 0.010139319304448152, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -517,34 +520,34 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0015534990140280514}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686, 897.0: 0.0011207192279457136}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.0463962493164385, 887.0: 0.17934972128858376}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.001570356167693723}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092, 897.0: 0.0010388882468031276}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.047005362491287325, 887.0: 0.1804567935058832}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 0.9983219820353371}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -553,13 +556,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.39523576063596144, 921.0: 0.009641342074816815}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655973099295898, 167.0: 0.0005353319057815846}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6420850419838438, 180.0: 0.012852253519766512}</t>
+    <t>{686.0: 0.3952431228545757, 921.0: 0.009641342074816815}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6651112763571226, 167.0: 0.0005353319057815846}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6419369495283576, 180.0: 0.021070398464061755}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.19041780567013103, 277.0: 0.0023258105425374496, 180.0: 4.655443559202107e-05}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.19098494749820913, 277.0: 0.002325274110489172, 180.0: 7.632284149116312e-05}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,25 +583,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.05567802506088436, 917.0: -0.0014010967651924978}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.20206146972586528, 142.0: 0.0020046989289698278, 788.0: 0.026298366265383358}</t>
+    <t>{285.0: 1.0, 311.0: 0.08577298477295446, 917.0: 0.002158756756402493}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.2046585053125296, 142.0: 0.0020049328055839633, 788.0: 0.026172626732387502}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.06631936431783429}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.4580815669688797, 297.0: 0.004759120184553127, 476.0: 8.123250477002565e-05, 595.0: 7.661043602810842e-06, 534.0: 2.6461281525454275e-05}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.06593118047976738}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.45540165704911717, 297.0: 0.004786184211172354, 476.0: 8.204471701047029e-05, 595.0: 7.690805364869404e-06, 534.0: 2.7816686311607476e-05}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285}</t>
@@ -625,40 +628,40 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.8658669368456603, 144.0: 0.0009172755822364778, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.8657214311427002, 144.0: 0.0009133285356518292, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31806895491343257, 909.0: 0.4033413912865418, 44.0: 7.58045374345196e-05}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3181056226324393, 909.0: 0.4033598044965117, 44.0: 7.498265547510774e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: -0.12142007238618385, 917.0: -0.003055447287573368}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.17223792870653248, 917.0: 0.004334928920664521}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +670,31 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6871389480085133}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.7446673455863116, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 0.3128610519914868}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.7422389940741984, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 897.0: 0.015918924769318995}</t>
+    <t>{400.0: 0.9375071729331006, 897.0: 0.01581574764915452}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.014908595742082748, 595.0: 0.0014060307799214982, 141.0: 0.0010629225922545575, 762.0: 0.0010629225922545575}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.23486628352579336, 782.0: 0.016145368846451156, 930.0: 0.03466123138963604}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.29179797477582636}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.01488053984211376, 595.0: 0.0013948897603641751, 141.0: 0.0010629225922545575, 762.0: 0.0010629225922545575}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.334621627080593, 782.0: 0.023097807016809496, 930.0: 0.04920380707209685}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.29439526531131543}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,16 +703,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.4158673903591414, 782.0: 0.028587893961467842, 930.0: 0.061373116772034574}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.3134363108230402, 782.0: 0.021635455791109502, 930.0: 0.046088652134287277}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +721,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -727,58 +730,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 5.153871948347349e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 5.140230962535237e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9946270330737831}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9946396999283419}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9854815631925835, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2308415575332725e-06, 172.0: 2.5943467283154615e-09}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9869660646445744, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2137022864894853e-06, 172.0: 2.549473102495131e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -793,34 +796,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272, 595.0: 0.07798943661869868}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.08064737321770447}</t>
+    <t>{476.0: 0.8253941069561146, 595.0: 0.07737177550505259}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.080645882789361}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9754941963143856}</t>
+    <t>{481.0: 0.9754793465303014}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -838,25 +841,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9913888345564824, 108.0: 0.008707164631843895, 144.0: 7.151847027037805e-05}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9914132703652688, 108.0: 0.00870247975337508, 144.0: 7.147838666626667e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 0.9913707268503154}</t>
@@ -865,19 +868,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19684442044858305, 180.0: 0.003940123550830762}</t>
+    <t>{499.0: 0.9158799178259773}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.196332408899556, 180.0: 0.006444249844104051}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.18598019855596482, 298.0: 0.00019010513430182239, 857.0: 0.00017716181648910772}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{534.0: 0.17503098432337108, 298.0: 0.00019241673586831533, 857.0: 0.0001772847706253548}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -889,13 +892,13 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 1.0, 530.0: 0.016173856462781022, 680.0: 0.0007025194449887987, 481.0: 1.2977595436825632e-05}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.983826143537219}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 1.0, 530.0: 0.016548865747358192, 680.0: 0.0007025194449887987, 481.0: 1.2977397881072971e-05}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9834511342526419}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,37 +910,37 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44172514845365357, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 595.0: 9.316750718904286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{534.0: 0.46654379136126534, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 595.0: 9.242927226949286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.07904502965307865}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.6637060410377729}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6067210535157433}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 0.07455484978503368}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.6681926205097679}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6068619892475952}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -952,7 +955,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 0.6410523032130602, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 0.6410523032130602, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -967,7 +970,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,25 +988,25 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.6176277135902498}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7086945288911954, 144.0: 0.024667481077092348, 303.0: 0.08541659767396019}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.6167546233569814}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7088793209528648, 144.0: 0.024689258787754288, 303.0: 0.0855687198425692}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.13435463720265733}</t>
+    <t>{758.0: 0.17026122246430186}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996, 434.0: 0.014278686035726003}</t>
+    <t>{585.0: 0.738502526649488, 434.0: 0.01281650453822409}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1012,10 +1015,10 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
-  </si>
-  <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
+  </si>
+  <si>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,22 +1027,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.22700102159895758, 686.0: 0.0016654057694474836, 171.0: 0.0012702656154636076}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.4752051152692574, 686.0: 0.0034863690703496463, 171.0: 0.0026591806238009013, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 14.0: 1.4664395685542368e-06, 492.0: 1.4182649564776898e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9041378805394085, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017836643902246173}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9745587882870337}</t>
+    <t>{593.0: 0.34903027661157165, 686.0: 0.0025338360963508516, 171.0: 0.0019604600211132086}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.35349335774018636, 686.0: 0.0025662364834301977, 171.0: 0.001985528597422912, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 14.0: 1.4718110216540514e-06, 492.0: 1.4181377169531444e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9046919016314485, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.01805030673635607}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9742725534142088}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1054,19 +1057,19 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9962446226757116}</t>
-  </si>
-  <si>
-    <t>{607.0: 1.0, 276.0: 0.0001290195379003294}</t>
-  </si>
-  <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{606.0: 0.9962612248325914}</t>
+  </si>
+  <si>
+    <t>{607.0: 1.0, 276.0: 0.0001289252492039434}</t>
+  </si>
+  <si>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1078,16 +1081,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1096,10 +1099,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9993564993564994, 887.0: 0.008532651389427716, 861.0: 0.01582952180875185, 253.0: 2.603539771176291e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9993564993564994, 887.0: 0.00839702516848118, 861.0: 0.01584614421955596, 253.0: 2.606273720321704e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1111,7 +1114,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1123,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{603.0: 0.48188504494688095, 617.0: 0.09160405235371184}</t>
@@ -1135,7 +1138,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1147,25 +1150,25 @@
     <t>{636.0: 0.8608934040407304}</t>
   </si>
   <si>
-    <t>{702.0: 0.0008999006753813592}</t>
+    <t>{702.0: 0.0008181632517291384}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9933624952141614, 481.0: 0.018350319947671445}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9722793299852615, 171.0: 0.0032284909272678277, 90.0: 0.0006682613886302803, 420.0: 1.0598936004283014e-06, 212.0: 9.919553579640475e-10}</t>
+    <t>{679.0: 0.5064363143631436}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9933624952141614, 481.0: 0.018350040603837183}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9721811674637931, 171.0: 0.0032420823898154415, 90.0: 0.0006682459607282925, 420.0: 1.0581612182455979e-06, 212.0: 9.879539244910177e-10}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1174,10 +1177,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.5133392922561841}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 534.0: 0.04730432785716252, 174.0: 0.006537175659195088}</t>
+    <t>{686.0: 0.5136687352674095}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 534.0: 0.044612709947814626, 174.0: 0.006500967737618479}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1189,28 +1192,28 @@
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.47222139305615607, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10262116591668767, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{86.0: 0.47388238887602785, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10386899780065838, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.19568512050545833}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7764655304144036}</t>
+    <t>{698.0: 0.41854399976112067}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5535701518944764}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1219,31 +1222,31 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6185531570853442}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{702.0: 0.6185314183072287}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21312395215500024}</t>
+    <t>{707.0: 0.939203537722822}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21378461631512685}</t>
   </si>
   <si>
     <t>{729.0: 0.8666726683471372}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.7743490239264605, 73.0: 0.15663214004979042}</t>
+    <t>{888.0: 0.7743475758866464, 73.0: 0.156636125432775}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1252,28 +1255,28 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 90.0: 0.03336709490427921, 789.0: 0.001337755535269926, 246.0: 0.0046769653436076015}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.16227014493243197}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.42358977000904163, 145.0: 0.00021875111604375668, 544.0: 0.0008557980316645272, 975.0: 6.058797017443116e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 90.0: 0.033366825615940315, 789.0: 0.0013407587636822436, 246.0: 0.0046735214091655165}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.12636355967078747}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.3393572469437298, 145.0: 0.00021875111604375668, 544.0: 0.0008557980316645272, 975.0: 6.058534347716448e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1285,7 +1288,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14691728847962096, 476.0: 0.1580378380300849, 595.0: 0.014904560329268492, 534.0: 0.05148042320777129}</t>
+    <t>{298.0: 0.14869571997779224, 476.0: 0.15961799694386994, 595.0: 0.014962461837353426, 534.0: 0.05411736321923234}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1294,7 +1297,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1692483342547498}</t>
+    <t>{580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1315,10 +1318,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006973890208834278}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{141.0: 0.08531777884783316, 762.0: 0.08531777884783316}</t>
@@ -1336,16 +1339,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 410.0: 0.0011892711866379729, 729.0: 0.0005594301533215271}</t>
+    <t>{770.0: 1.0, 410.0: 0.001187460658027995, 729.0: 0.0005585784852501463}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.008611165443517668, 108.0: 7.563009847926788e-05, 144.0: 6.212066933768134e-07}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.09693769541970168, 729.0: 0.04559924634564226}</t>
+    <t>{772.0: 1.0, 493.0: 0.00858672963473121, 108.0: 7.537304878562167e-05, 144.0: 6.19081466202159e-07}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.09693908409627565, 729.0: 0.04559989957558462}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1357,73 +1360,73 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.0177645691330777, 184.0: 0.008221436149102493, 593.0: 0.0012663229284891708, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06, 681.0: 7.970287018032109e-09}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.01756592497786708, 184.0: 0.008237802816574552, 593.0: 0.0012663011278041482, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06, 681.0: 7.949191699168725e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.00039723359866790484, 172.0: 8.372821674516765e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.00039170218459303987, 172.0: 8.227999526119286e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7335374506024158, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.7335374506024158, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.0678019663035204, 180.0: 0.0013571536526986046}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{277.0: 0.06831393842955914, 180.0: 0.002242279252530558}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5258853831294269, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9726485174093751, 486.0: 0.8429827244967432, 604.0: 0.406643068799627, 980.0: 0.30157180612251394}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005372966926216832}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5258548522119905, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9719706112379355, 486.0: 0.8407936948063115, 604.0: 0.40822465293820404, 980.0: 0.30157180612251394}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005360300071658137}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.852224123182207, 303.0: 0.04791084093211753, 144.0: 5.075542515983719e-05}</t>
+    <t>{840.0: 0.852224123182207, 303.0: 0.04790278969434347, 144.0: 5.053702402564251e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1435,37 +1438,37 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.025012879793628044, 277.0: 0.06388127608361341}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.127015359537843}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{180.0: 0.006014103002808445, 277.0: 0.064011902744831}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.1271454449394628}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06415696705170477, 543.0: 0.0007473459994291548}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3088232097973241, 543.0: 0.003598426294349922}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,13 +1477,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700407893163199, 253.0: 0.0011020407719018418, 490.0: 0.032209337000882715}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.674127674658629, 253.0: 0.0011087626227937978, 490.0: 0.032521737688368406}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1489,13 +1492,13 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.7457304325437474, 834.0: 0.000365810097070382, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.2210067384085172}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{887.0: 0.7448045771376064, 834.0: 0.00038440478195918737, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.22100815664548643}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1507,64 +1510,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 897.0: 0.025011973259636902, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.394597138987593}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.25724892930914856, 687.0: 0.006852159468438538, 534.0: 0.0003263731589559614, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 253.0: 0.0005166439079084569, 490.0: 0.015099947446190023}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 897.0: 0.024959772235402113, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.3919816901909587}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.2572525297051986, 687.0: 0.006852159468438538, 534.0: 0.00030780251479780105, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 253.0: 0.000509894699920738, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.95590953518928, 110.0: 0.13225596173777687}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.27665170598155925, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7269507306257114}</t>
+    <t>{914.0: 0.95590953518928, 110.0: 0.13230807735601716}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2741594620673877, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7266651015559211}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.22396696302162192, 297.0: 0.0009905894006934125, 857.0: 0.0007418295946381623}</t>
+    <t>{298.0: 0.22398909751516538, 297.0: 0.0009962226557635632, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.0697701476794267}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.913783438500914, 887.0: 0.03672414399586635, 834.0: 1.8014769241368704e-05}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.06954351822272714}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9149179109469824, 887.0: 0.036678553405654145, 834.0: 1.8930487424301594e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1582,49 +1585,49 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
   </si>
   <si>
-    <t>{932.0: 1.0, 108.0: 0.0004714245245266227, 144.0: 3.872163013753022e-06}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.22847970492944453, 702.0: 0.19452922961350527, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{932.0: 1.0, 108.0: 0.0004714268749157421, 144.0: 3.872095472216239e-06}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.22912593073271295, 702.0: 0.19453117352956792, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.1351555863735242, 206.0: 0.1472611464968153}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.13143894210007095, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9880743598737285}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056}</t>
@@ -1633,16 +1636,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9964091840330419, 152.0: 0.07154402341844747}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9963659867558985, 152.0: 0.07154462475655347}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1654,19 +1657,19 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.10598357914895444, 729.0: 0.04985440713524362}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.07807107216517041, 729.0: 0.03672443456299134}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.1217684170457661, 729.0: 0.05727955489294922}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.06228887093494651, 729.0: 0.029300527086568978}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{486.0: 0.881371991661929, 837.0: 0.11862800833807088}</t>
@@ -1693,7 +1696,7 @@
     <t>{11.0: 0.9970355731225298, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123917, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919351812436296, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098773, 696.0: 0.005717900736820557, 492.0: 9.229939229500002e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1714,10 +1717,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8360594187381457, 90.0: 0.06050131721643373, 246.0: 0.060836043701626874, 681.0: 0.024047541953283215, 741.0: 0.007682407370618041, 789.0: 0.010873271019892427}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8360594187381457, 90.0: 0.06050131721643373, 246.0: 0.06083530380575232, 681.0: 0.024047541953283215, 741.0: 0.00768240737061804, 789.0: 0.010874010915766992}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1735,10 +1738,10 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.22668409045122154}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671372}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -1747,13 +1750,13 @@
     <t>{79.0: 0.9973266236829689, 271.0: 0.00267337631703098}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571375}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203815}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680973, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680973, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044908, 165.0: 0.000476246703126895, 433.0: 0.00010498729238260625}</t>
@@ -1765,13 +1768,13 @@
     <t>{89.0: 0.9985642498205313, 88.0: 0.001435750179468772}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 3.891516281160075e-07, 681.0: 8.615903205520463e-09}</t>
+    <t>{90.0: 0.9975819711770966, 420.0: 0.002417631055372248, 212.0: 3.8915162811600777e-07, 681.0: 8.615903205520463e-09}</t>
   </si>
   <si>
     <t>{91.0: 0.9626363760350688, 92.0: 0.0373636239649309}</t>
   </si>
   <si>
-    <t>{92.0: 0.539046921397084, 91.0: 0.3314082927595298, 858.0: 0.12789938287627584, 543.0: 0.0016454029671103072}</t>
+    <t>{92.0: 0.539046921397084, 91.0: 0.3314082927595298, 858.0: 0.12789938287627584, 543.0: 0.0016454029671103074}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1786,28 +1789,28 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502988, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6591156106243851, 86.0: 0.323545276337936, 505.0: 0.017339113037679228}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.778344322842229, 110.0: 0.2216556771577714}</t>
+    <t>{543.0: 0.6707439927095042, 86.0: 0.329256007290496}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6591138868005696, 86.0: 0.3235470001617511, 505.0: 0.017339113037679228}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511281, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.7783443228422289, 110.0: 0.2216556771577714}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{140.0: 0.9858227848101263, 141.0: 0.013356338268367214, 762.0: 0.0008208769215062112}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9420988600009006, 762.0: 0.057901139999098794}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273642}</t>
+    <t>{140.0: 0.9858227848101263, 141.0: 0.0133575420300966, 762.0: 0.0008196731597768282}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943128, 762.0: 0.05781623180568696}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187106, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1825,13 +1828,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.5686022157305419, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.5686022157305419, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.979945769710397, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 276.0: 0.5808984820566816}</t>
@@ -1843,10 +1846,10 @@
     <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9461440454101393, 404.0: 0.006089422657506929, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.2885762735512773e-06, 681.0: 2.8529363990065168e-08, 831.0: 0.001466275659824047}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 534.0: 0.48078828492954623}</t>
+    <t>{173.0: 0.9461505286921806, 404.0: 0.0060829393754654, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.2885762735512775e-06, 681.0: 2.8529363990065168e-08, 831.0: 0.001466275659824047}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 534.0: 0.4786506064287579}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747692, 399.0: 0.01814484592523072}</t>
@@ -1855,22 +1858,22 @@
     <t>{562.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9787688438400038, 14.0: 0.007491382546310047, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5428960109589418, 180.0: 0.44676854643963, 410.0: 0.010246425442575776, 277.0: 8.901715885237608e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9744761105291382, 410.0: 0.025304057170381308, 277.0: 0.0002198323004807031}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.997996700447797, 277.0: 0.0019306801921326877, 180.0: 7.261936007094297e-05}</t>
+    <t>{178.0: 0.9787135366093609, 14.0: 0.00749095923121892, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5438355769225947, 180.0: 0.44578667419459694, 410.0: 0.010220365869510065, 277.0: 0.00015738301329806163}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9743062866453894, 410.0: 0.025304057170381308, 277.0: 0.00038965618422933583}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876846, 277.0: 0.001938217450661064, 180.0: 7.290286165408993e-05}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6198636811651962, 171.0: 0.1674358061427227, 593.0: 0.2110158765734826, 778.0: 0.0016846361185983833}</t>
+    <t>{184.0: 0.619581107396017, 171.0: 0.16755953700304693, 593.0: 0.21116098603571867, 778.0: 0.0016983695652173908}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
@@ -1885,13 +1888,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.994614809274495, 857.0: 0.005385190725504864}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
   </si>
   <si>
     <t>{206.0: 0.683704517870523, 785.0: 0.11807027527014115, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1915,19 +1918,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680914, 409.0: 0.21846661763190867}</t>
+    <t>{218.0: 0.7813754377265824, 409.0: 0.21862456227341753}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310287, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345013, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1939,10 +1939,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.00018045618356780222, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047618}</t>
+    <t>{227.0: 0.9996683166600524, 297.0: 0.00017861479393955929, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809521, 738.0: 0.007619047619047624}</t>
   </si>
   <si>
     <t>{230.0: 1.0}</t>
@@ -1954,676 +1954,673 @@
     <t>{102.0: 0.9953091684434967, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364936}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364936}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994584739326644, 46.0: 0.0004820751577681768, 90.0: 3.488529808840018e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.4297063847683686e-06, 789.0: 6.269997574697588e-06}</t>
+  </si>
+  <si>
+    <t>{249.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.9490025224988077, 144.0: 0.04963263250986057, 303.0: 0.0013648449913323526}</t>
+  </si>
+  <si>
+    <t>{251.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{253.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{255.0: 0.8887904297740368, 973.0: 0.10017350600506647, 494.0: 0.011036064220897158}</t>
+  </si>
+  <si>
+    <t>{260.0: 0.9678010679843787, 707.0: 0.03219893201562126}</t>
+  </si>
+  <si>
+    <t>{262.0: 0.9992897727272728, 79.0: 0.0007102272727272727}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.968119139547711, 897.0: 0.03188086045228902}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.2854902606045079, 887.0: 0.7145097393954923}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083753, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
+  </si>
+  <si>
+    <t>{271.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{272.0: 0.8427700348432055, 203.0: 0.15722996515679444}</t>
+  </si>
+  <si>
+    <t>{686.0: 0.991790567528631, 921.0: 0.008209432471368641}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.999431946824358, 167.0: 0.0005680531756420232}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658954}</t>
+  </si>
+  <si>
+    <t>{281.0: 0.9619157530294289, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9896907216494846, 277.0: 0.009935568290138249, 180.0: 0.0003737100603772118}</t>
+  </si>
+  <si>
+    <t>{285.0: 0.9141291469502109, 311.0: 0.08430248869049502, 917.0: 0.0015683643592939894}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.953136270821694, 142.0: 0.0026421501246611965, 788.0: 0.044221579053644745}</t>
+  </si>
+  <si>
+    <t>{288.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.6822884034348525, 730.0: 0.3177115965651475}</t>
+  </si>
+  <si>
+    <t>{291.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{292.0: 0.7970762269404801, 139.0: 0.20292377305951956}</t>
+  </si>
+  <si>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.98589863815986, 297.0: 0.01391518791972656, 476.0: 8.673852620006252e-05, 595.0: 1.579979203509793e-05, 534.0: 8.363560217789607e-05}</t>
+  </si>
+  <si>
+    <t>{299.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{301.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
+  </si>
+  <si>
+    <t>{305.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3178664336572601, 909.0: 0.6821038549456095, 44.0: 2.971139713031199e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.8880984604071781, 204.0: 0.041033345463431264, 426.0: 0.07086273685860801, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.9817357775823579, 917.0: 0.018264222417641886}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.9417289819392752, 5.0: 0.053001830257361125, 759.0: 0.005269187803363386}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534322, 71.0: 0.017948096046568034}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.9087606539052676, 532.0: 0.06500628755064972, 560.0: 0.026233058544082716}</t>
+  </si>
+  <si>
+    <t>{399.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
+  </si>
+  <si>
+    <t>{401.0: 0.9931387057715593, 16.0: 0.006861294228440737}</t>
+  </si>
+  <si>
+    <t>{402.0: 0.9876183457230789, 476.0: 0.00878804806046156, 595.0: 0.001600780389437125, 141.0: 0.0018776081470592133, 762.0: 0.00011521767996350528}</t>
+  </si>
+  <si>
+    <t>{403.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.7846102713864083, 782.0: 0.024531876508247667, 930.0: 0.19085785210534426}</t>
+  </si>
+  <si>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.056861742908254534}</t>
+  </si>
+  <si>
+    <t>{409.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{410.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.784610271386408, 782.0: 0.02453187650824766, 930.0: 0.19085785210534428}</t>
+  </si>
+  <si>
+    <t>{414.0: 0.9969001859888406, 759.0: 0.00309981401115933}</t>
+  </si>
+  <si>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12246045507537903, 180.0: 0.004606148609080106}</t>
+  </si>
+  <si>
+    <t>{418.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750566, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365614, 681.0: 3.563192929675042e-06}</t>
+  </si>
+  <si>
+    <t>{597.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{423.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04748944923957106, 434.0: 0.000399325219749228}</t>
+  </si>
+  <si>
+    <t>{426.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.941983941983942, 755.0: 0.05801605801605801}</t>
+  </si>
+  <si>
+    <t>{428.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9996376811594206, 783.0: 0.00036231884057971015}</t>
+  </si>
+  <si>
+    <t>{431.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{432.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{433.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.6936304352368652, 585.0: 0.30636956476313476}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9862700228832951, 781.0: 0.01372517362616835, 81.0: 4.796463382614096e-06, 172.0: 7.027153842396636e-09}</t>
+  </si>
+  <si>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
+  </si>
+  <si>
+    <t>{442.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{443.0: 0.8939655172413792, 291.0: 0.10603448275862067}</t>
+  </si>
+  <si>
+    <t>{475.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{476.0: 0.8459132906894105, 595.0: 0.15408670931059}</t>
+  </si>
+  <si>
+    <t>{477.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{479.0: 0.9235911012950448, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380016, 944.0: 0.05350118017309206}</t>
+  </si>
+  <si>
+    <t>{481.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{483.0: 0.960999621355547, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9720846452514067, 97.0: 0.011519836235458273, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589335, 14.0: 0.00011685133629600279}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9826319305277219, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+  </si>
+  <si>
+    <t>{494.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{495.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{496.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{499.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434095, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.9988226983753233, 298.0: 0.0008493757985227521, 857.0: 0.00032792582615348987}</t>
+  </si>
+  <si>
+    <t>{503.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{505.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.388795518207283, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{507.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{529.0: 0.9831194496238118, 530.0: 0.014364827105748186, 680.0: 0.002502567064561674, 481.0: 1.3156205878577847e-05}</t>
+  </si>
+  <si>
+    <t>{530.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{531.0: 0.9788982259570493, 262.0: 0.0199813258636788, 442.0: 0.0011204481792717086}</t>
+  </si>
+  <si>
+    <t>{532.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.9992392131290077, 402.0: 0.0007513670709772362, 476.0: 6.685831586048357e-06, 595.0: 1.2178527036256798e-06, 141.0: 1.428459627150798e-06, 762.0: 8.765609822242554e-08}</t>
+  </si>
+  <si>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.00654773201746062}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{537.0: 0.9727987104573845, 608.0: 0.027201289542615352}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448115, 185.0: 0.16654163540885214, 404.0: 0.16654163540885214, 930.0: 0.5001250312578145}</t>
+  </si>
+  <si>
+    <t>{540.0: 0.9966254218222723, 428.0: 0.003374578177727784}</t>
+  </si>
+  <si>
+    <t>{542.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{543.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9987328405491024, 975.0: 0.0012671594508975714}</t>
+  </si>
+  <si>
+    <t>{559.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{560.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{561.0: 0.9975621647976597, 979.0: 0.0024378352023403213}</t>
+  </si>
+  <si>
+    <t>{562.0: 0.9667784212130447, 211.0: 0.0332215787869552}</t>
+  </si>
+  <si>
+    <t>{563.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{564.0: 0.8869264658882776, 565.0: 0.11307353411172197}</t>
+  </si>
+  <si>
+    <t>{565.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{573.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{574.0: 0.9936708860759492, 906.0: 0.006329113924050634}</t>
+  </si>
+  <si>
+    <t>{576.0: 0.9802847754654982, 401.0: 0.019715224534501644}</t>
+  </si>
+  <si>
+    <t>{578.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{580.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.046519163845813546, 303.0: 0.06400950244159957}</t>
+  </si>
+  <si>
+    <t>{758.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{585.0: 0.9916614024005053, 434.0: 0.00833859759949463}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
+  </si>
+  <si>
+    <t>{589.0: 0.9755777741353875, 145.0: 0.0014751680052450418, 743.0: 0.022947057859367317}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9912172314130085, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9878398022377088, 686.0: 0.005399049051054196, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.161610445994601e-07, 492.0: 3.0314700497386952e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991026460334677, 402.0: 0.0008894395353984776, 476.0: 7.914431134056821e-06}</t>
+  </si>
+  <si>
+    <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
+  </si>
+  <si>
+    <t>{599.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7596809969694167, 837.0: 0.16867679992930837, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
+  </si>
+  <si>
+    <t>{605.0: 0.9748587570621468, 475.0: 0.025141242937853105}</t>
+  </si>
+  <si>
+    <t>{606.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{607.0: 0.9998005584363782, 276.0: 0.00019944156362185878}</t>
+  </si>
+  <si>
+    <t>{608.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{609.0: 0.6600271299031932, 886.0: 0.2101997228991062, 610.0: 0.12977314719770067}</t>
+  </si>
+  <si>
+    <t>{610.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{612.0: 0.8208478973286727, 613.0: 0.17915210267132714}</t>
+  </si>
+  <si>
+    <t>{613.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665944, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
+  </si>
+  <si>
+    <t>{615.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{617.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9870235970064313, 789.0: 0.012976402993568503}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025535, 887.0: 0.013046083606791265, 861.0: 0.021528000860446844, 253.0: 1.5728630208029214e-05}</t>
+  </si>
+  <si>
+    <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111374}</t>
+  </si>
+  <si>
+    <t>{621.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{623.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{629.0: 0.20385830114630688, 209.0: 0.12419463399985506, 788.0: 0.671947064853838}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{636.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{702.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9947704081632653, 481.0: 0.005229591836734694}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9948962876128331, 171.0: 0.004336673165198297, 90.0: 0.0007651845056146916, 420.0: 1.8544178596981958e-06, 212.0: 2.9849456462985476e-10}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.585884524498907, 698.0: 0.12135505202398521, 751.0: 0.2927604234771076}</t>
+  </si>
+  <si>
+    <t>{684.0: 0.8638762996534258, 685.0: 0.13612370034657426}</t>
+  </si>
+  <si>
+    <t>{685.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{686.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.707188847156117, 534.0: 0.291314676333301, 174.0: 0.0014964765105820598}</t>
+  </si>
+  <si>
+    <t>{688.0: 0.9574829931972787, 208.0: 0.04251700680272111}</t>
+  </si>
+  <si>
+    <t>{689.0: 0.9980198019801979, 700.0: 0.0019801980198019802}</t>
+  </si>
+  <si>
+    <t>{691.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{692.0: 0.9612552033301315, 110.0: 0.03874479666986872}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.951893270305719, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652259, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063284, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.228119652057989e-07, 623.0: 8.132068258195553e-07, 97.0: 4.11281720352593e-06}</t>
+  </si>
+  <si>
+    <t>{698.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{700.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{704.0: 0.987452948557089, 481.0: 0.012547051442910915}</t>
+  </si>
+  <si>
+    <t>{707.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{729.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624012}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.8647924498870713, 73.0: 0.13520755011292845}</t>
+  </si>
+  <si>
+    <t>{735.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
+  </si>
+  <si>
+    <t>{738.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{739.0: 0.9994516792323509, 831.0: 0.0005483207676490747}</t>
+  </si>
+  <si>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113908, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+  </si>
+  <si>
+    <t>{743.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9985795454545453, 145.0: 0.0006087662337662338, 544.0: 0.0008106597731729728, 975.0: 1.0285385153389377e-06}</t>
+  </si>
+  <si>
+    <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.562630917469627, 476.0: 0.20377048267549688, 595.0: 0.03711766143845381, 534.0: 0.19648093841642233}</t>
+  </si>
+  <si>
+    <t>{751.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{754.0: 0.8492529563266307, 917.0: 0.15074704367336977}</t>
+  </si>
+  <si>
+    <t>{755.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{756.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{759.0: 0.9984255510571303, 226.0: 0.0015744489428699954}</t>
+  </si>
+  <si>
+    <t>{760.0: 0.7957918248415949, 761.0: 0.20420817515840514}</t>
+  </si>
+  <si>
+    <t>{761.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943138, 762.0: 0.057816231805686985}</t>
+  </si>
+  <si>
+    <t>{768.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100495, 410.0: 0.013782554190914693, 729.0: 0.006046197499035739}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9872276603169206, 493.0: 0.012550508800140121, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9753594977972541, 171.0: 0.01913116741521325, 184.0: 0.0015373358112421686, 593.0: 0.0019984907361196625, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031756e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523235, 81.0: 0.00034909002737804464, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
+  </si>
+  <si>
+    <t>{783.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.31473060493316796}</t>
+  </si>
+  <si>
+    <t>{204.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434098, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{788.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9426975115915951, 246.0: 0.05730248840840526}</t>
+  </si>
+  <si>
+    <t>{831.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{832.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{833.0: 0.9940704167244315, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.9681697612732095, 210.0: 0.03162121602224349, 82.0: 4.5723716619645626e-05, 788.0: 0.00016329898792730583}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.985065525336512, 836.0: 0.009882906572559542, 756.0: 0.005051568090928225}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.79630082803911, 486.0: 0.09037248577453545, 604.0: 0.09427525610217233, 980.0: 0.01905143008418187}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.8986196061801563, 19.0: 0.08849300800794795, 423.0: 0.012887385811895666}</t>
+  </si>
+  <si>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
+  </si>
+  <si>
+    <t>{842.0: 0.9956627812415288, 606.0: 0.00433721875847113}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525658}</t>
+  </si>
+  <si>
+    <t>{851.0: 0.7041613012602974, 7.0: 0.2958386987397023}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259582, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796241, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383982e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310048, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085411, 298.0: 0.005269269691458644}</t>
+  </si>
+  <si>
     <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947866}</t>
   </si>
   <si>
-    <t>{246.0: 0.9994584743592914, 46.0: 0.0004820751577681768, 90.0: 3.488529808840018e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.42970638476837e-06, 789.0: 6.269570947818603e-06}</t>
-  </si>
-  <si>
-    <t>{249.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.9490025224988077, 144.0: 0.04963263250986057, 303.0: 0.0013648449913323526}</t>
-  </si>
-  <si>
-    <t>{251.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{253.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{255.0: 0.8887904297740354, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
-  </si>
-  <si>
-    <t>{260.0: 0.9678010679843787, 707.0: 0.03219893201562126}</t>
-  </si>
-  <si>
-    <t>{262.0: 0.9992897727272728, 79.0: 0.0007102272727272727}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477116, 897.0: 0.03188086045228902}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.2854904034012877, 887.0: 0.7145095965987118}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083753, 479.0: 0.01235614765786211, 942.0: 0.0002797618337629159}</t>
-  </si>
-  <si>
-    <t>{271.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{272.0: 0.8427700348432055, 203.0: 0.15722996515679444}</t>
-  </si>
-  <si>
-    <t>{686.0: 0.991790567528631, 921.0: 0.008209432471368641}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.999431946824358, 167.0: 0.0005680531756420232}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434109, 180.0: 0.03624987585658952}</t>
-  </si>
-  <si>
-    <t>{281.0: 0.9619157530294289, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9896907216494846, 277.0: 0.009935568290138256, 180.0: 0.0003737100603772117}</t>
-  </si>
-  <si>
-    <t>{285.0: 0.9141291469502109, 311.0: 0.08430248869049502, 917.0: 0.0015683643592939894}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.953136270821694, 142.0: 0.0026421501246611965, 788.0: 0.044221579053644745}</t>
-  </si>
-  <si>
-    <t>{288.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.6822884034348525, 730.0: 0.3177115965651475}</t>
-  </si>
-  <si>
-    <t>{291.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{292.0: 0.7970762269404801, 139.0: 0.20292377305951956}</t>
-  </si>
-  <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9858971704678536, 297.0: 0.013916655611733712, 476.0: 8.672728879463211e-05, 595.0: 1.581102944052829e-05, 534.0: 8.363560217789607e-05}</t>
-  </si>
-  <si>
-    <t>{299.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{301.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
-  </si>
-  <si>
-    <t>{305.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31786658877294144, 909.0: 0.6821038549456095, 44.0: 2.955628144900518e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.8858654923525081, 204.0: 0.0409854440794062, 426.0: 0.0731432659158121, 857.0: 5.797652272921264e-06}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
-  </si>
-  <si>
-    <t>{311.0: 0.9817357775823579, 917.0: 0.018264222417641886}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.9417289819392752, 5.0: 0.053001830257361125, 759.0: 0.005269187803363386}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452716, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.9087606539052676, 532.0: 0.06500628755064972, 560.0: 0.026233058544082716}</t>
-  </si>
-  <si>
-    <t>{399.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477118, 897.0: 0.03188086045228902}</t>
-  </si>
-  <si>
-    <t>{401.0: 0.9931387057715593, 16.0: 0.006861294228440737}</t>
-  </si>
-  <si>
-    <t>{402.0: 0.9876183457230789, 476.0: 0.008786909525333939, 595.0: 0.0016019189245647472, 141.0: 0.0018774389398184548, 762.0: 0.00011538688720426231}</t>
-  </si>
-  <si>
-    <t>{403.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.784659558305239, 782.0: 0.02450950790853788, 930.0: 0.19083093378622312}</t>
-  </si>
-  <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05695999999999999}</t>
-  </si>
-  <si>
-    <t>{409.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{410.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.7846595583052388, 782.0: 0.02450950790853788, 930.0: 0.19083093378622318}</t>
-  </si>
-  <si>
-    <t>{414.0: 0.9969001859888406, 759.0: 0.00309981401115933}</t>
-  </si>
-  <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1222871619785742, 180.0: 0.004599630474255935}</t>
-  </si>
-  <si>
-    <t>{418.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.01478953356086462}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365606, 681.0: 3.563192929675042e-06}</t>
-  </si>
-  <si>
-    <t>{597.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{423.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.04756292440600669, 434.0: 0.0003999430514455908}</t>
-  </si>
-  <si>
-    <t>{426.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.941983941983942, 755.0: 0.05801605801605801}</t>
-  </si>
-  <si>
-    <t>{428.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.00018839487565938215}</t>
-  </si>
-  <si>
-    <t>{431.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{432.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{433.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.6936304352368652, 585.0: 0.30636956476313465}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9862700228832951, 781.0: 0.01372517362616835, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
-  </si>
-  <si>
-    <t>{441.0: 0.9886363636363631, 782.0: 0.01136363636363637}</t>
-  </si>
-  <si>
-    <t>{442.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.10603448275862068}</t>
-  </si>
-  <si>
-    <t>{475.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{476.0: 0.8458036984352776, 595.0: 0.15419630156472264}</t>
-  </si>
-  <si>
-    <t>{477.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{479.0: 0.9240044013343359, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380016, 944.0: 0.05350118017309206}</t>
-  </si>
-  <si>
-    <t>{481.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{483.0: 0.9609996213555475, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923825, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458273, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589335, 14.0: 0.00011685133629600279}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9826319305277219, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
-  </si>
-  <si>
-    <t>{494.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{495.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{496.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{499.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.963750124143411, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.9988226983753233, 298.0: 0.0008492817296495458, 857.0: 0.00032801989502669624}</t>
-  </si>
-  <si>
-    <t>{503.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{505.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.38879551820728275, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{507.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{529.0: 0.9831194496238118, 530.0: 0.014364827105748186, 680.0: 0.002502567064561674, 481.0: 1.3156205878577847e-05}</t>
-  </si>
-  <si>
-    <t>{530.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{531.0: 0.9788982259570493, 262.0: 0.0199813258636788, 442.0: 0.0011204481792717086}</t>
-  </si>
-  <si>
-    <t>{532.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.9992392131290077, 402.0: 0.0007513670709772362, 476.0: 6.684965403471098e-06, 595.0: 1.2187188862029379e-06, 141.0: 1.4283308965035524e-06, 762.0: 8.778482886967026e-08}</t>
-  </si>
-  <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.00654773201746062}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124718, 837.0: 0.18177668218752846}</t>
-  </si>
-  <si>
-    <t>{537.0: 0.9727987104573845, 608.0: 0.027201289542615352}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448115, 185.0: 0.16654163540885214, 404.0: 0.16654163540885214, 930.0: 0.5001250312578145}</t>
-  </si>
-  <si>
-    <t>{540.0: 0.9966254218222723, 428.0: 0.003374578177727784}</t>
-  </si>
-  <si>
-    <t>{542.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{543.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9987328405491024, 975.0: 0.0012671594508975714}</t>
-  </si>
-  <si>
-    <t>{559.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{560.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{561.0: 0.9975621647976597, 979.0: 0.0024378352023403213}</t>
-  </si>
-  <si>
-    <t>{562.0: 0.9667784212130447, 211.0: 0.0332215787869552}</t>
-  </si>
-  <si>
-    <t>{563.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{564.0: 0.8847625759895477, 565.0: 0.11523742401045246}</t>
-  </si>
-  <si>
-    <t>{565.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{573.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{574.0: 0.9936708860759492, 906.0: 0.006329113924050634}</t>
-  </si>
-  <si>
-    <t>{576.0: 0.9802847754654982, 401.0: 0.019715224534501644}</t>
-  </si>
-  <si>
-    <t>{578.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{580.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
-  </si>
-  <si>
-    <t>{758.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{585.0: 0.9916614024005049, 434.0: 0.00833859759949463}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
-  </si>
-  <si>
-    <t>{589.0: 0.9755777741353875, 145.0: 0.0014751680052450418, 743.0: 0.022947057859367317}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357594, 686.0: 0.005408680253004251, 171.0: 0.0033537935238321876, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.161610445994601e-07, 492.0: 3.031470093290504e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991026470588215, 402.0: 0.0008894395353984784, 476.0: 7.913405780326473e-06}</t>
-  </si>
-  <si>
-    <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
-  </si>
-  <si>
-    <t>{599.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7589999858839297, 837.0: 0.1686196130210783, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
-  </si>
-  <si>
-    <t>{605.0: 0.9748587570621468, 475.0: 0.025141242937853105}</t>
-  </si>
-  <si>
-    <t>{606.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{607.0: 0.9998005584363782, 276.0: 0.00019944156362185878}</t>
-  </si>
-  <si>
-    <t>{608.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{609.0: 0.6600271299031932, 886.0: 0.2101997228991062, 610.0: 0.12977314719770067}</t>
-  </si>
-  <si>
-    <t>{610.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{612.0: 0.8208478973286727, 613.0: 0.17915210267132714}</t>
-  </si>
-  <si>
-    <t>{613.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665934, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
-  </si>
-  <si>
-    <t>{615.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{617.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9870244830639152, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.02146674605646208, 253.0: 1.5683876672083762e-05}</t>
-  </si>
-  <si>
-    <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111374}</t>
-  </si>
-  <si>
-    <t>{621.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{623.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{629.0: 0.20385830114630688, 209.0: 0.12419463399985506, 788.0: 0.671947064853838}</t>
-  </si>
-  <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{636.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{702.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9947704081632653, 481.0: 0.005229591836734694}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9948962876128331, 171.0: 0.004336673165198297, 90.0: 0.0007651845056146916, 420.0: 1.8544178596981958e-06, 212.0: 2.9849456462985455e-10}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.585884524498907, 698.0: 0.12135505202398521, 751.0: 0.2927604234771076}</t>
-  </si>
-  <si>
-    <t>{684.0: 0.8638762996534258, 685.0: 0.13612370034657426}</t>
-  </si>
-  <si>
-    <t>{685.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{686.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.7058427004955543, 534.0: 0.29267935943527196, 174.0: 0.0014779400691736146}</t>
-  </si>
-  <si>
-    <t>{688.0: 0.9574829931972787, 208.0: 0.04251700680272111}</t>
-  </si>
-  <si>
-    <t>{689.0: 0.9980198019801979, 700.0: 0.0019801980198019802}</t>
-  </si>
-  <si>
-    <t>{691.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{692.0: 0.9612552033301315, 110.0: 0.03874479666986872}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.9518932703057186, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.721379901164324, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661319, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.23020500067043e-07, 623.0: 8.137321532264154e-07, 97.0: 4.11281720352593e-06}</t>
-  </si>
-  <si>
-    <t>{698.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{700.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{704.0: 0.987452948557089, 481.0: 0.012547051442910916}</t>
-  </si>
-  <si>
-    <t>{707.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{729.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624012}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.8647615067933468, 73.0: 0.13523849320665327}</t>
-  </si>
-  <si>
-    <t>{735.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851535, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
-  </si>
-  <si>
-    <t>{738.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{739.0: 0.9994516792323509, 831.0: 0.0005483207676490747}</t>
-  </si>
-  <si>
-    <t>{740.0: 0.7011235955056179, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113908, 90.0: 0.09275598362042738, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
-  </si>
-  <si>
-    <t>{743.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9985795454545453, 145.0: 0.0006087662337662338, 544.0: 0.0008106597731729728, 975.0: 1.0285385153389377e-06}</t>
-  </si>
-  <si>
-    <t>{746.0: 0.9899854627685354, 691.0: 0.01001453723146503}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.562630917469627, 476.0: 0.2037440832007895, 595.0: 0.03714406091316109, 534.0: 0.19648093841642233}</t>
-  </si>
-  <si>
-    <t>{751.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{754.0: 0.9200087710787183, 917.0: 0.0799912289212821}</t>
-  </si>
-  <si>
-    <t>{755.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{756.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{759.0: 0.9984255510571303, 226.0: 0.0015744489428699954}</t>
-  </si>
-  <si>
-    <t>{760.0: 0.7957918248415949, 761.0: 0.20420817515840514}</t>
-  </si>
-  <si>
-    <t>{761.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.05790113999909887}</t>
-  </si>
-  <si>
-    <t>{768.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571429, 410.0: 0.013653342745374861, 729.0: 0.0059895143974822785}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.987227660316921, 493.0: 0.012550508800140112, 108.0: 0.00021915091102318852, 144.0: 2.6799719160657585e-06}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9748082592125861, 171.0: 0.01962816851591652, 184.0: 0.0015491915919107109, 593.0: 0.0020408724394157638, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031756e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523235, 81.0: 0.0003490904449492977, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
-  </si>
-  <si>
-    <t>{783.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
-  </si>
-  <si>
-    <t>{204.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{788.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9426331421214653, 246.0: 0.05736685787853456}</t>
-  </si>
-  <si>
-    <t>{831.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{832.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{833.0: 0.9940704167244315, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.9681697612732095, 210.0: 0.03162121602224349, 82.0: 4.5723716619645626e-05, 788.0: 0.00016329898792730583}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9854027219869261, 836.0: 0.00954570992214585, 756.0: 0.005051568090928225}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646835, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7963103836559645, 486.0: 0.09037248577453545, 604.0: 0.09426570048531795, 980.0: 0.01905143008418187}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.8986196061801563, 19.0: 0.08849300800794795, 423.0: 0.012887385811895665}</t>
-  </si>
-  <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
-  </si>
-  <si>
-    <t>{842.0: 0.9956627812415288, 606.0: 0.00433721875847113}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9322033898305083, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.4913251915743714}</t>
-  </si>
-  <si>
-    <t>{851.0: 0.7041613012602974, 7.0: 0.2958386987397023}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796245, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383982e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939895, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.870955708232313, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527882}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410217, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{861.0: 0.9908122828101358, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932894}</t>
@@ -2635,7 +2632,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9985590569313147, 834.0: 0.0008798970965816699, 619.0: 0.0005488344953339268, 861.0: 1.2202561423636924e-05, 253.0: 8.915345993681083e-09}</t>
+    <t>{887.0: 0.9985718767403096, 834.0: 0.0008670989779753015, 619.0: 0.0005487779598127294, 861.0: 1.223738111667056e-05, 253.0: 8.940785702608694e-09}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2662,13 +2659,16 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.9950083194675541, 687.0: 0.0035233412670327177, 534.0: 0.00146096186074179, 174.0: 7.377404671415714e-06}</t>
+    <t>{542.0: 0.9950083194675541, 687.0: 0.003530060801112065, 534.0: 0.0014541497986687237, 174.0: 7.4699326651350734e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155152, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152105, 110.0: 0.09572201278478935}</t>
   </si>
   <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.22180900334722647}</t>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.2184317511011622}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
@@ -2680,28 +2680,28 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.992584557827128, 297.0: 0.005990275426909785, 857.0: 0.0014251667459625362}</t>
+    <t>{298.0: 0.9927157970888625, 297.0: 0.005859444871573596, 857.0: 0.001424758039564063}</t>
   </si>
   <si>
     <t>{921.0: 0.8183024740968302, 686.0: 0.18169752590317012}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854247, 887.0: 0.06836565552205066, 834.0: 6.024199252435389e-05}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909883}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552465, 922.0: 0.16918576018906858}</t>
+    <t>{922.0: 0.9315741024854247, 887.0: 0.06836653174288196, 834.0: 5.9365771693070486e-05}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943135, 762.0: 0.05781623180568698}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142145, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{932.0: 0.9982325910215625, 108.0: 0.0017460566474922735, 144.0: 2.1352330945336983e-05}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.4444699931840698, 702.0: 0.5210941826700205, 299.0: 0.03443582414590989}</t>
+    <t>{932.0: 0.9982325910215625, 108.0: 0.0017460566474922729, 144.0: 2.1352330945336983e-05}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.44418159074975416, 702.0: 0.521382585104336, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747107, 5.0: 0.03148289312528854}</t>
@@ -2710,28 +2710,28 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9916176129471715, 171.0: 0.003293328528655217, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5155720569940877, 206.0: 0.4844279430059126}</t>
+    <t>{593.0: 0.9916176050004195, 171.0: 0.0032933364754076174, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.5012622828305769, 206.0: 0.49873771716942306}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16042594361443507, 707.0: 0.000913674097471865}</t>
+    <t>{943.0: 0.7045586858250902, 634.0: 0.10993183872972913, 848.0: 0.18445892626852103, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382852, 615.0: 0.045862412761714856}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123953}</t>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.0462311557788945}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786257, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{975.0: 0.9378725155834826, 152.0: 0.06212748441651745}</t>
@@ -2740,7 +2740,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601316, 489.0: 0.04917254413384411, 935.0: 0.00041186400602402634}</t>
+    <t>{782.0: 0.9504155918601316, 489.0: 0.04917437168691645, 935.0: 0.00041003645295171315}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -2749,13 +2749,13 @@
     <t>{980.0: 0.9675586784272686, 840.0: 0.03244132157273135}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.404518558364712}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898867, 249.0: 0.007603186097031136, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898878, 599.0: 0.007022471910112362}</t>
+    <t>{990.0: 0.9929775280898878, 599.0: 0.007022471910112356}</t>
   </si>
 </sst>
 </file>
@@ -3113,7 +3113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C549"/>
+  <dimension ref="A1:C550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3149,7 +3149,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3545,7 +3545,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3996,7 +3996,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4040,7 +4040,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4073,7 +4073,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4128,7 +4128,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4139,7 +4139,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4172,7 +4172,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4183,7 +4183,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4194,7 +4194,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4689,7 +4689,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4760,18 +4760,18 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>648</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4782,18 +4782,18 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>648</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4804,18 +4804,18 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>650</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4826,18 +4826,18 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>650</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4859,73 +4859,73 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>653</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>653</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>654</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>632</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4936,40 +4936,40 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>655</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>656</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>656</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4980,29 +4980,29 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -5046,18 +5046,18 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>663</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -5068,18 +5068,18 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>663</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -5101,18 +5101,18 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>666</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -5123,18 +5123,18 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>666</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -5145,18 +5145,18 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>668</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -5167,18 +5167,18 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>668</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -5189,29 +5189,29 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>670</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>670</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -5222,29 +5222,29 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>672</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>672</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -5255,18 +5255,18 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>674</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -5277,18 +5277,18 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>674</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -5310,29 +5310,29 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>677</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>677</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -5343,29 +5343,29 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>679</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>679</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5376,29 +5376,29 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>681</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>681</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -5442,40 +5442,40 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>686</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>686</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>687</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5486,117 +5486,117 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>687</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>226</v>
+        <v>695</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5607,95 +5607,95 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>696</v>
+        <v>228</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>232</v>
+        <v>699</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>700</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>235</v>
+        <v>701</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
@@ -5706,216 +5706,216 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>702</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>240</v>
+        <v>704</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>705</v>
+        <v>241</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B243" t="s">
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>244</v>
+        <v>707</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B244" t="s">
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>708</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B245" t="s">
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B246" t="s">
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B247" t="s">
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>248</v>
+        <v>710</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B248" t="s">
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>711</v>
+        <v>249</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B249" t="s">
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B250" t="s">
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B251" t="s">
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B252" t="s">
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B253" t="s">
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B254" t="s">
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>255</v>
+        <v>716</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B255" t="s">
         <v>256</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B256" t="s">
         <v>257</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B257" t="s">
         <v>258</v>
@@ -5948,150 +5948,150 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B258" t="s">
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>717</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B259" t="s">
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B260" t="s">
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="B261" t="s">
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B262" t="s">
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B263" t="s">
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B264" t="s">
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>265</v>
+        <v>722</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B265" t="s">
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>723</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B266" t="s">
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>634</v>
+        <v>723</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B267" t="s">
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>724</v>
+        <v>635</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B268" t="s">
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B269" t="s">
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B270" t="s">
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>271</v>
+        <v>725</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B271" t="s">
         <v>272</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B272" t="s">
         <v>273</v>
@@ -6113,348 +6113,348 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B273" t="s">
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>726</v>
+        <v>274</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B274" t="s">
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B275" t="s">
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B276" t="s">
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B277" t="s">
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B278" t="s">
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B279" t="s">
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B280" t="s">
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B281" t="s">
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>282</v>
+        <v>733</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B282" t="s">
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>734</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B283" t="s">
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B284" t="s">
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>285</v>
+        <v>735</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B285" t="s">
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>736</v>
+        <v>286</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B286" t="s">
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B287" t="s">
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>288</v>
+        <v>737</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B288" t="s">
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>738</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B289" t="s">
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B290" t="s">
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B291" t="s">
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B292" t="s">
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B293" t="s">
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B294" t="s">
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B295" t="s">
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>296</v>
+        <v>744</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B296" t="s">
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>745</v>
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B297" t="s">
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B298" t="s">
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B299" t="s">
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B300" t="s">
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>301</v>
+        <v>748</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B301" t="s">
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>749</v>
+        <v>302</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B302" t="s">
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B303" t="s">
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B304" t="s">
         <v>305</v>
@@ -6465,282 +6465,282 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B305" t="s">
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B306" t="s">
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B307" t="s">
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>308</v>
+        <v>753</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B308" t="s">
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>754</v>
+        <v>309</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B309" t="s">
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B310" t="s">
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B311" t="s">
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B312" t="s">
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B313" t="s">
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B314" t="s">
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B315" t="s">
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>316</v>
+        <v>760</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B316" t="s">
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>761</v>
+        <v>317</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B317" t="s">
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B318" t="s">
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>319</v>
+        <v>762</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B319" t="s">
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>763</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B320" t="s">
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>321</v>
+        <v>763</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B321" t="s">
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>764</v>
+        <v>322</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B322" t="s">
         <v>323</v>
       </c>
       <c r="C322" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B323" t="s">
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B324" t="s">
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B325" t="s">
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>326</v>
+        <v>766</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B326" t="s">
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>767</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B327" t="s">
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>328</v>
+        <v>767</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B328" t="s">
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>768</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B329" t="s">
         <v>330</v>
       </c>
       <c r="C329" t="s">
-        <v>330</v>
+        <v>768</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B330" t="s">
         <v>331</v>
@@ -6751,40 +6751,40 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B331" t="s">
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>769</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B332" t="s">
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B333" t="s">
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>334</v>
+        <v>770</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B334" t="s">
         <v>335</v>
@@ -6795,84 +6795,84 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B335" t="s">
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>771</v>
+        <v>336</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B336" t="s">
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B337" t="s">
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B338" t="s">
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>705</v>
+        <v>773</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B339" t="s">
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>774</v>
+        <v>705</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B340" t="s">
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B341" t="s">
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>342</v>
+        <v>775</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B342" t="s">
         <v>343</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B343" t="s">
         <v>344</v>
@@ -6894,249 +6894,249 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B344" t="s">
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>776</v>
+        <v>345</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B345" t="s">
         <v>346</v>
       </c>
       <c r="C345" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B346" t="s">
         <v>347</v>
       </c>
       <c r="C346" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B347" t="s">
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B348" t="s">
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B349" t="s">
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B350" t="s">
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B351" t="s">
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B352" t="s">
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>353</v>
+        <v>783</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B353" t="s">
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>784</v>
+        <v>354</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B354" t="s">
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B355" t="s">
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B356" t="s">
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B357" t="s">
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>358</v>
+        <v>787</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B358" t="s">
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>788</v>
+        <v>359</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B359" t="s">
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B360" t="s">
         <v>361</v>
       </c>
       <c r="C360" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B361" t="s">
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B362" t="s">
         <v>363</v>
       </c>
       <c r="C362" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B363" t="s">
         <v>364</v>
       </c>
       <c r="C363" t="s">
-        <v>364</v>
+        <v>792</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B364" t="s">
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>793</v>
+        <v>365</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B365" t="s">
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>366</v>
+        <v>793</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B366" t="s">
         <v>367</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B367" t="s">
         <v>368</v>
@@ -7158,73 +7158,73 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B368" t="s">
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>639</v>
+        <v>369</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B369" t="s">
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>794</v>
+        <v>639</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B370" t="s">
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B371" t="s">
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B372" t="s">
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>652</v>
+        <v>795</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B373" t="s">
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>374</v>
+        <v>653</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B374" t="s">
         <v>375</v>
@@ -7235,513 +7235,513 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B375" t="s">
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>797</v>
+        <v>376</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B376" t="s">
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="B377" t="s">
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>378</v>
+        <v>797</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B378" t="s">
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>563</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B379" t="s">
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>799</v>
+        <v>564</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B380" t="s">
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B381" t="s">
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>382</v>
+        <v>799</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B382" t="s">
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>801</v>
+        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B383" t="s">
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B384" t="s">
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B385" t="s">
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B386" t="s">
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B387" t="s">
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B388" t="s">
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B389" t="s">
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B390" t="s">
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B391" t="s">
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>392</v>
+        <v>808</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B392" t="s">
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>810</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B393" t="s">
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B394" t="s">
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B395" t="s">
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>396</v>
+        <v>811</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B396" t="s">
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>813</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B397" t="s">
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B398" t="s">
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B399" t="s">
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>400</v>
+        <v>813</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B400" t="s">
         <v>401</v>
       </c>
       <c r="C400" t="s">
-        <v>798</v>
+        <v>401</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B401" t="s">
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B402" t="s">
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>403</v>
+        <v>814</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B403" t="s">
         <v>404</v>
       </c>
       <c r="C403" t="s">
-        <v>816</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>765</v>
+        <v>815</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B405" t="s">
         <v>406</v>
       </c>
       <c r="C405" t="s">
-        <v>817</v>
+        <v>765</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B406" t="s">
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B407" t="s">
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>408</v>
+        <v>817</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B408" t="s">
         <v>409</v>
       </c>
       <c r="C408" t="s">
-        <v>819</v>
+        <v>409</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B409" t="s">
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B410" t="s">
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>411</v>
+        <v>819</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B411" t="s">
         <v>412</v>
       </c>
       <c r="C411" t="s">
-        <v>821</v>
+        <v>412</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B412" t="s">
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B413" t="s">
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B414" t="s">
         <v>415</v>
       </c>
       <c r="C414" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B415" t="s">
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B416" t="s">
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>767</v>
+        <v>824</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B417" t="s">
         <v>418</v>
       </c>
       <c r="C417" t="s">
-        <v>826</v>
+        <v>767</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B418" t="s">
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B419" t="s">
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B420" t="s">
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>421</v>
+        <v>827</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B421" t="s">
         <v>422</v>
@@ -7752,161 +7752,161 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B422" t="s">
         <v>423</v>
       </c>
       <c r="C422" t="s">
-        <v>829</v>
+        <v>423</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B423" t="s">
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>424</v>
+        <v>828</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B424" t="s">
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>830</v>
+        <v>425</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B425" t="s">
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>765</v>
+        <v>829</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B426" t="s">
         <v>427</v>
       </c>
       <c r="C426" t="s">
-        <v>427</v>
+        <v>765</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B427" t="s">
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>831</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B428" t="s">
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B429" t="s">
         <v>430</v>
       </c>
       <c r="C429" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B430" t="s">
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>767</v>
+        <v>832</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B431" t="s">
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>834</v>
+        <v>767</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B432" t="s">
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B433" t="s">
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B434" t="s">
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B435" t="s">
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>436</v>
+        <v>836</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B436" t="s">
         <v>437</v>
@@ -7917,84 +7917,84 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B437" t="s">
         <v>438</v>
       </c>
       <c r="C437" t="s">
-        <v>838</v>
+        <v>438</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B438" t="s">
         <v>439</v>
       </c>
       <c r="C438" t="s">
-        <v>439</v>
+        <v>837</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B439" t="s">
         <v>440</v>
       </c>
       <c r="C439" t="s">
-        <v>839</v>
+        <v>440</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B440" t="s">
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>441</v>
+        <v>838</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B441" t="s">
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>840</v>
+        <v>442</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B442" t="s">
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B443" t="s">
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>444</v>
+        <v>840</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B444" t="s">
         <v>445</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B445" t="s">
         <v>446</v>
@@ -8016,271 +8016,271 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B446" t="s">
         <v>447</v>
       </c>
       <c r="C446" t="s">
-        <v>842</v>
+        <v>447</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B447" t="s">
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>448</v>
+        <v>841</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B448" t="s">
         <v>449</v>
       </c>
       <c r="C448" t="s">
-        <v>843</v>
+        <v>449</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B449" t="s">
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B450" t="s">
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>451</v>
+        <v>843</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B451" t="s">
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>845</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B452" t="s">
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B453" t="s">
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B454" t="s">
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B455" t="s">
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="B456" t="s">
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B457" t="s">
         <v>458</v>
       </c>
       <c r="C457" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B458" t="s">
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B459" t="s">
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B460" t="s">
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B461" t="s">
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B462" t="s">
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B463" t="s">
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B464" t="s">
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>465</v>
+        <v>856</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B465" t="s">
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>858</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B466" t="s">
         <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>467</v>
+        <v>857</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B467" t="s">
         <v>468</v>
       </c>
       <c r="C467" t="s">
-        <v>859</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B468" t="s">
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B469" t="s">
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>470</v>
+        <v>859</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B470" t="s">
         <v>471</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B471" t="s">
         <v>472</v>
@@ -8302,139 +8302,139 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B472" t="s">
         <v>473</v>
       </c>
       <c r="C472" t="s">
-        <v>861</v>
+        <v>473</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B473" t="s">
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>474</v>
+        <v>860</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B474" t="s">
         <v>475</v>
       </c>
       <c r="C474" t="s">
-        <v>862</v>
+        <v>475</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B475" t="s">
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B476" t="s">
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B477" t="s">
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B478" t="s">
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B479" t="s">
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>480</v>
+        <v>865</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B480" t="s">
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>600</v>
+        <v>481</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B481" t="s">
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>867</v>
+        <v>601</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B482" t="s">
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B483" t="s">
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>484</v>
+        <v>867</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B484" t="s">
         <v>485</v>
@@ -8445,106 +8445,106 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B485" t="s">
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>869</v>
+        <v>486</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B486" t="s">
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B487" t="s">
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="B488" t="s">
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>489</v>
+        <v>870</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B489" t="s">
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>872</v>
+        <v>490</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B490" t="s">
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B491" t="s">
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B492" t="s">
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B493" t="s">
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>494</v>
+        <v>874</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B494" t="s">
         <v>495</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B495" t="s">
         <v>496</v>
@@ -8566,238 +8566,238 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B496" t="s">
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>876</v>
+        <v>497</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B497" t="s">
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>498</v>
+        <v>875</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B498" t="s">
         <v>499</v>
       </c>
       <c r="C498" t="s">
-        <v>877</v>
+        <v>499</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B499" t="s">
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B500" t="s">
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B501" t="s">
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B502" t="s">
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>848</v>
+        <v>879</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B503" t="s">
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B504" t="s">
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B505" t="s">
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B506" t="s">
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>507</v>
+        <v>882</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B507" t="s">
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>883</v>
+        <v>508</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B508" t="s">
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B509" t="s">
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B510" t="s">
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B511" t="s">
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B512" t="s">
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B513" t="s">
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>514</v>
+        <v>888</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B514" t="s">
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>889</v>
+        <v>515</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B515" t="s">
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B516" t="s">
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>517</v>
+        <v>890</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B517" t="s">
         <v>518</v>
@@ -8808,29 +8808,29 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B518" t="s">
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>891</v>
+        <v>519</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B519" t="s">
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>520</v>
+        <v>891</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B520" t="s">
         <v>521</v>
@@ -8841,321 +8841,332 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B521" t="s">
         <v>522</v>
       </c>
       <c r="C521" t="s">
-        <v>892</v>
+        <v>522</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B522" t="s">
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B523" t="s">
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B524" t="s">
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B525" t="s">
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B526" t="s">
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B527" t="s">
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>528</v>
+        <v>897</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B528" t="s">
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>898</v>
+        <v>529</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B529" t="s">
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B530" t="s">
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>531</v>
+        <v>899</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B531" t="s">
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>900</v>
+        <v>532</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B532" t="s">
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B533" t="s">
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="B534" t="s">
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B535" t="s">
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B536" t="s">
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B537" t="s">
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>538</v>
+        <v>905</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B538" t="s">
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>906</v>
+        <v>539</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B539" t="s">
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B540" t="s">
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>541</v>
+        <v>907</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B541" t="s">
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>908</v>
+        <v>542</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B542" t="s">
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B543" t="s">
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B544" t="s">
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B545" t="s">
         <v>546</v>
       </c>
       <c r="C545" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B546" t="s">
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B547" t="s">
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>841</v>
+        <v>913</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B548" t="s">
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B549" t="s">
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>622</v>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550">
+        <v>997</v>
+      </c>
+      <c r="B550" t="s">
+        <v>551</v>
+      </c>
+      <c r="C550" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
